--- a/data/pca/factorExposure/factorExposure_2011-09-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.01975707054911743</v>
+        <v>0.01599470929165771</v>
       </c>
       <c r="C2">
-        <v>0.01238802191058372</v>
+        <v>-0.009246385438279088</v>
       </c>
       <c r="D2">
-        <v>-0.04811564987327273</v>
+        <v>0.03707469483540939</v>
       </c>
       <c r="E2">
-        <v>-0.06375910643567537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03091023694291479</v>
+      </c>
+      <c r="F2">
+        <v>0.03017527641707045</v>
+      </c>
+      <c r="G2">
+        <v>0.007135619298282526</v>
+      </c>
+      <c r="H2">
+        <v>-0.01278170050652018</v>
+      </c>
+      <c r="I2">
+        <v>0.004558058941961035</v>
+      </c>
+      <c r="J2">
+        <v>0.06194288051026754</v>
+      </c>
+      <c r="K2">
+        <v>0.07056430712983382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.0831784630727302</v>
+        <v>0.09589293324968748</v>
       </c>
       <c r="C4">
-        <v>0.04690269477911792</v>
+        <v>-0.05016168987578132</v>
       </c>
       <c r="D4">
-        <v>-0.05261597812629613</v>
+        <v>0.03338308245036622</v>
       </c>
       <c r="E4">
-        <v>-0.01701727859699308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01606785174321925</v>
+      </c>
+      <c r="F4">
+        <v>0.07739166920603435</v>
+      </c>
+      <c r="G4">
+        <v>-0.02665750174712971</v>
+      </c>
+      <c r="H4">
+        <v>0.005605179625270527</v>
+      </c>
+      <c r="I4">
+        <v>0.06564705573452018</v>
+      </c>
+      <c r="J4">
+        <v>-0.03980732341024147</v>
+      </c>
+      <c r="K4">
+        <v>-0.04852151225920014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1169043793641436</v>
+        <v>0.1303092777173587</v>
       </c>
       <c r="C6">
-        <v>-0.00553646609880535</v>
+        <v>-0.004007410241840264</v>
       </c>
       <c r="D6">
-        <v>-0.04234640310915126</v>
+        <v>0.06268487183454913</v>
       </c>
       <c r="E6">
-        <v>-0.07246393509163816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02726495104364314</v>
+      </c>
+      <c r="F6">
+        <v>0.0334467954948862</v>
+      </c>
+      <c r="G6">
+        <v>-0.05203537818456858</v>
+      </c>
+      <c r="H6">
+        <v>0.1963013241879323</v>
+      </c>
+      <c r="I6">
+        <v>-0.09332968432257555</v>
+      </c>
+      <c r="J6">
+        <v>-0.4370905328760846</v>
+      </c>
+      <c r="K6">
+        <v>-0.02957610524414673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07344822654832785</v>
+        <v>0.07177125719829565</v>
       </c>
       <c r="C7">
-        <v>0.02196304140222923</v>
+        <v>-0.05113352382606668</v>
       </c>
       <c r="D7">
-        <v>-0.06079773829245416</v>
+        <v>0.04848564419437351</v>
       </c>
       <c r="E7">
-        <v>-0.05582254408158902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.03131093582059671</v>
+      </c>
+      <c r="F7">
+        <v>0.0428131495717791</v>
+      </c>
+      <c r="G7">
+        <v>0.01415154459011544</v>
+      </c>
+      <c r="H7">
+        <v>-0.004732596575166807</v>
+      </c>
+      <c r="I7">
+        <v>0.04996677397904124</v>
+      </c>
+      <c r="J7">
+        <v>0.05220303188402943</v>
+      </c>
+      <c r="K7">
+        <v>-0.06629376240928635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04118090688150133</v>
+        <v>0.04266304686530926</v>
       </c>
       <c r="C8">
-        <v>0.05496453421231154</v>
+        <v>-0.02508673621494956</v>
       </c>
       <c r="D8">
-        <v>0.004136909024471948</v>
+        <v>-0.007122086421018354</v>
       </c>
       <c r="E8">
-        <v>-0.05863354738798482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.05443523969249537</v>
+      </c>
+      <c r="F8">
+        <v>0.05137071895664421</v>
+      </c>
+      <c r="G8">
+        <v>-0.05087832052815436</v>
+      </c>
+      <c r="H8">
+        <v>0.03671971468140842</v>
+      </c>
+      <c r="I8">
+        <v>0.10057177626818</v>
+      </c>
+      <c r="J8">
+        <v>-0.02255181009271204</v>
+      </c>
+      <c r="K8">
+        <v>-0.04257801121380003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.08012955685031935</v>
+        <v>0.08761488473408964</v>
       </c>
       <c r="C9">
-        <v>0.05706723119574091</v>
+        <v>-0.05080508886251337</v>
       </c>
       <c r="D9">
-        <v>-0.04463609787458322</v>
+        <v>0.03104492699661977</v>
       </c>
       <c r="E9">
-        <v>-0.018499995058735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01591178848767247</v>
+      </c>
+      <c r="F9">
+        <v>0.05836125149184131</v>
+      </c>
+      <c r="G9">
+        <v>-0.04208334654500841</v>
+      </c>
+      <c r="H9">
+        <v>0.003181466684812052</v>
+      </c>
+      <c r="I9">
+        <v>0.07497250294765237</v>
+      </c>
+      <c r="J9">
+        <v>-0.04146818449263201</v>
+      </c>
+      <c r="K9">
+        <v>-0.0279290228712388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01861954591728151</v>
+        <v>0.06640904430037407</v>
       </c>
       <c r="C10">
-        <v>-0.1625024407994493</v>
+        <v>0.1982907941805664</v>
       </c>
       <c r="D10">
-        <v>0.00776156765697549</v>
+        <v>0.0160986021118116</v>
       </c>
       <c r="E10">
-        <v>-0.09176255672297286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.05071182258959321</v>
+      </c>
+      <c r="F10">
+        <v>0.04061950343569513</v>
+      </c>
+      <c r="G10">
+        <v>0.02542436432126079</v>
+      </c>
+      <c r="H10">
+        <v>0.006101635125664366</v>
+      </c>
+      <c r="I10">
+        <v>-0.03711327972382289</v>
+      </c>
+      <c r="J10">
+        <v>0.02441788566460686</v>
+      </c>
+      <c r="K10">
+        <v>0.0160770910973211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07650592731712952</v>
+        <v>0.07691780028863228</v>
       </c>
       <c r="C11">
-        <v>0.05734037715117967</v>
+        <v>-0.05864172834007483</v>
       </c>
       <c r="D11">
-        <v>-0.03113355660960762</v>
+        <v>0.02852532583842761</v>
       </c>
       <c r="E11">
-        <v>-0.03602111040902756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02117552709834504</v>
+      </c>
+      <c r="F11">
+        <v>0.01566104062280341</v>
+      </c>
+      <c r="G11">
+        <v>-0.06751454476422372</v>
+      </c>
+      <c r="H11">
+        <v>-0.01534103181414259</v>
+      </c>
+      <c r="I11">
+        <v>0.08182273619639861</v>
+      </c>
+      <c r="J11">
+        <v>0.03004649416530966</v>
+      </c>
+      <c r="K11">
+        <v>0.04942178311378917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07279032595511792</v>
+        <v>0.07341499142942687</v>
       </c>
       <c r="C12">
-        <v>0.04226482852025403</v>
+        <v>-0.04674203443881905</v>
       </c>
       <c r="D12">
-        <v>-0.04372154354257201</v>
+        <v>0.02709218514510072</v>
       </c>
       <c r="E12">
-        <v>-0.03026651368285014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.00847283214864912</v>
+      </c>
+      <c r="F12">
+        <v>0.03166114057414333</v>
+      </c>
+      <c r="G12">
+        <v>-0.04315776643804895</v>
+      </c>
+      <c r="H12">
+        <v>0.01106554469588718</v>
+      </c>
+      <c r="I12">
+        <v>0.09724559366129798</v>
+      </c>
+      <c r="J12">
+        <v>0.03011599647616819</v>
+      </c>
+      <c r="K12">
+        <v>0.0240704384761148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08237915243628507</v>
+        <v>0.07097589015854203</v>
       </c>
       <c r="C13">
-        <v>0.0355079111802486</v>
+        <v>-0.03510256060153027</v>
       </c>
       <c r="D13">
-        <v>-0.02718904968555814</v>
+        <v>-0.009859629588816123</v>
       </c>
       <c r="E13">
-        <v>-0.02055570794487567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.002169996239211732</v>
+      </c>
+      <c r="F13">
+        <v>0.04240274629750809</v>
+      </c>
+      <c r="G13">
+        <v>-0.01261749114690814</v>
+      </c>
+      <c r="H13">
+        <v>0.002164617115452496</v>
+      </c>
+      <c r="I13">
+        <v>0.1051965801321867</v>
+      </c>
+      <c r="J13">
+        <v>0.01952803345799372</v>
+      </c>
+      <c r="K13">
+        <v>-0.0961148954246252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03512294515039865</v>
+        <v>0.04407988301564909</v>
       </c>
       <c r="C14">
-        <v>-0.003778302398788934</v>
+        <v>-0.007841548060513046</v>
       </c>
       <c r="D14">
-        <v>-0.02720947586066019</v>
+        <v>0.03053008487692092</v>
       </c>
       <c r="E14">
-        <v>-0.01343934389688774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0006166217185701871</v>
+      </c>
+      <c r="F14">
+        <v>0.02991729442995858</v>
+      </c>
+      <c r="G14">
+        <v>-0.03584476009914767</v>
+      </c>
+      <c r="H14">
+        <v>-0.04254048415588731</v>
+      </c>
+      <c r="I14">
+        <v>0.05872285390511831</v>
+      </c>
+      <c r="J14">
+        <v>-0.04943756275249509</v>
+      </c>
+      <c r="K14">
+        <v>-0.04550244771286218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05914742039578127</v>
+        <v>0.04710320744002041</v>
       </c>
       <c r="C15">
-        <v>0.01791456630166548</v>
+        <v>-0.01760506077651678</v>
       </c>
       <c r="D15">
-        <v>-0.007125489872736365</v>
+        <v>-0.01425639543068292</v>
       </c>
       <c r="E15">
-        <v>-0.008160372491722512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.002486861307535327</v>
+      </c>
+      <c r="F15">
+        <v>0.03264764946556041</v>
+      </c>
+      <c r="G15">
+        <v>-0.02106561008377324</v>
+      </c>
+      <c r="H15">
+        <v>-0.00127813027399067</v>
+      </c>
+      <c r="I15">
+        <v>0.01836816396102946</v>
+      </c>
+      <c r="J15">
+        <v>-0.0361100645451644</v>
+      </c>
+      <c r="K15">
+        <v>-0.07329161679250257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06482464357873195</v>
+        <v>0.07530113309709034</v>
       </c>
       <c r="C16">
-        <v>0.056918104449904</v>
+        <v>-0.05793281120179435</v>
       </c>
       <c r="D16">
-        <v>-0.03770383670905916</v>
+        <v>0.03087113178432242</v>
       </c>
       <c r="E16">
-        <v>-0.02590848553696803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.01214447873682924</v>
+      </c>
+      <c r="F16">
+        <v>0.0356303239353113</v>
+      </c>
+      <c r="G16">
+        <v>-0.04111862006489603</v>
+      </c>
+      <c r="H16">
+        <v>-0.01128377862093357</v>
+      </c>
+      <c r="I16">
+        <v>0.05876536852543884</v>
+      </c>
+      <c r="J16">
+        <v>0.01973217678981563</v>
+      </c>
+      <c r="K16">
+        <v>0.02367498637097414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06997768037737823</v>
+        <v>0.06358526163992127</v>
       </c>
       <c r="C20">
-        <v>0.05125397156011171</v>
+        <v>-0.0396284894050973</v>
       </c>
       <c r="D20">
-        <v>-0.01998534431943745</v>
+        <v>0.00999217606056744</v>
       </c>
       <c r="E20">
-        <v>-0.02486090799916858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.01449322842552259</v>
+      </c>
+      <c r="F20">
+        <v>0.01644923116182139</v>
+      </c>
+      <c r="G20">
+        <v>-0.02980090574976215</v>
+      </c>
+      <c r="H20">
+        <v>-0.01423071800400573</v>
+      </c>
+      <c r="I20">
+        <v>0.127046031667565</v>
+      </c>
+      <c r="J20">
+        <v>-0.00538600415658745</v>
+      </c>
+      <c r="K20">
+        <v>-0.03165540121769658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03845500466386182</v>
+        <v>0.0322064455621242</v>
       </c>
       <c r="C21">
-        <v>0.02348345730420611</v>
+        <v>-0.02443120171925951</v>
       </c>
       <c r="D21">
-        <v>0.02247038882592692</v>
+        <v>-0.03075476834937212</v>
       </c>
       <c r="E21">
-        <v>-0.01600577906421301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.001114046172904094</v>
+      </c>
+      <c r="F21">
+        <v>0.02167041448381794</v>
+      </c>
+      <c r="G21">
+        <v>-0.001013749902929779</v>
+      </c>
+      <c r="H21">
+        <v>0.0772539775024696</v>
+      </c>
+      <c r="I21">
+        <v>0.02723561685209644</v>
+      </c>
+      <c r="J21">
+        <v>-0.03941269785702364</v>
+      </c>
+      <c r="K21">
+        <v>-0.05700413030498731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1176648965158061</v>
+        <v>0.09506028300657814</v>
       </c>
       <c r="C22">
-        <v>0.1081330774681783</v>
+        <v>-0.06453372850289943</v>
       </c>
       <c r="D22">
-        <v>0.01449055689593655</v>
+        <v>-0.2683277804751214</v>
       </c>
       <c r="E22">
-        <v>-0.03507642061289923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0002604186460983404</v>
+      </c>
+      <c r="F22">
+        <v>0.48345290717446</v>
+      </c>
+      <c r="G22">
+        <v>0.2948245849204077</v>
+      </c>
+      <c r="H22">
+        <v>0.01753053866197297</v>
+      </c>
+      <c r="I22">
+        <v>-0.220740596158394</v>
+      </c>
+      <c r="J22">
+        <v>0.06828058721361008</v>
+      </c>
+      <c r="K22">
+        <v>0.04588189980174889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1187253582882491</v>
+        <v>0.09604907195560129</v>
       </c>
       <c r="C23">
-        <v>0.107602065945166</v>
+        <v>-0.06489885557074332</v>
       </c>
       <c r="D23">
-        <v>0.01289594537823388</v>
+        <v>-0.2680787070116077</v>
       </c>
       <c r="E23">
-        <v>-0.03633350194910471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.000713853820882793</v>
+      </c>
+      <c r="F23">
+        <v>0.487953726897876</v>
+      </c>
+      <c r="G23">
+        <v>0.2895029223474121</v>
+      </c>
+      <c r="H23">
+        <v>0.0162389780580854</v>
+      </c>
+      <c r="I23">
+        <v>-0.2233128956401833</v>
+      </c>
+      <c r="J23">
+        <v>0.06309027044187533</v>
+      </c>
+      <c r="K23">
+        <v>0.04593750255344766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08685327164822981</v>
+        <v>0.08561718083189897</v>
       </c>
       <c r="C24">
-        <v>0.05528577704537512</v>
+        <v>-0.05691288251147337</v>
       </c>
       <c r="D24">
-        <v>-0.03317946704038478</v>
+        <v>0.02205359083818666</v>
       </c>
       <c r="E24">
-        <v>-0.03958680280657036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02010789433071758</v>
+      </c>
+      <c r="F24">
+        <v>0.03581997271071333</v>
+      </c>
+      <c r="G24">
+        <v>-0.0601924001793451</v>
+      </c>
+      <c r="H24">
+        <v>0.008154796806679491</v>
+      </c>
+      <c r="I24">
+        <v>0.07360758937328817</v>
+      </c>
+      <c r="J24">
+        <v>0.01187121918425216</v>
+      </c>
+      <c r="K24">
+        <v>0.03343727201696312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08356942219717826</v>
+        <v>0.07966693230109821</v>
       </c>
       <c r="C25">
-        <v>0.04689148751007709</v>
+        <v>-0.04580029472276128</v>
       </c>
       <c r="D25">
-        <v>-0.05015273695894444</v>
+        <v>0.03289288615453539</v>
       </c>
       <c r="E25">
-        <v>-0.04847948373924178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01366618791816176</v>
+      </c>
+      <c r="F25">
+        <v>0.04421133513622866</v>
+      </c>
+      <c r="G25">
+        <v>-0.05674501985572873</v>
+      </c>
+      <c r="H25">
+        <v>-0.003492555971275982</v>
+      </c>
+      <c r="I25">
+        <v>0.08604187243526702</v>
+      </c>
+      <c r="J25">
+        <v>0.01416392629172263</v>
+      </c>
+      <c r="K25">
+        <v>0.04705476935239896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05445236645503123</v>
+        <v>0.04829173133035571</v>
       </c>
       <c r="C26">
-        <v>0.01515997598683903</v>
+        <v>-0.02397204677595064</v>
       </c>
       <c r="D26">
-        <v>0.003395323441217961</v>
+        <v>-0.02303118923597886</v>
       </c>
       <c r="E26">
-        <v>-0.03751419137389796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01299675399472789</v>
+      </c>
+      <c r="F26">
+        <v>0.02468130330763595</v>
+      </c>
+      <c r="G26">
+        <v>-0.02318529496622582</v>
+      </c>
+      <c r="H26">
+        <v>-0.02336673449581361</v>
+      </c>
+      <c r="I26">
+        <v>0.03175133624879879</v>
+      </c>
+      <c r="J26">
+        <v>-0.0222986967614792</v>
+      </c>
+      <c r="K26">
+        <v>-0.1241374924889162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04382914151719246</v>
+        <v>0.08122966527867169</v>
       </c>
       <c r="C28">
-        <v>-0.2961974734748374</v>
+        <v>0.2972986758258627</v>
       </c>
       <c r="D28">
-        <v>0.01254085881282902</v>
+        <v>-0.00795389154992167</v>
       </c>
       <c r="E28">
-        <v>-0.07704358160523452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.02530773348076541</v>
+      </c>
+      <c r="F28">
+        <v>0.01510564072247321</v>
+      </c>
+      <c r="G28">
+        <v>-0.02848844974653265</v>
+      </c>
+      <c r="H28">
+        <v>0.0454026453073911</v>
+      </c>
+      <c r="I28">
+        <v>-0.03442983201680227</v>
+      </c>
+      <c r="J28">
+        <v>0.0172814683590579</v>
+      </c>
+      <c r="K28">
+        <v>-0.06713423164181657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05896508300555207</v>
+        <v>0.05537491095866851</v>
       </c>
       <c r="C29">
-        <v>-0.003745106962708759</v>
+        <v>-0.009812020875619602</v>
       </c>
       <c r="D29">
-        <v>-0.03035809643801052</v>
+        <v>0.02082202317131151</v>
       </c>
       <c r="E29">
-        <v>-0.02642504833298831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01364519934162739</v>
+      </c>
+      <c r="F29">
+        <v>0.03775213431998905</v>
+      </c>
+      <c r="G29">
+        <v>-0.02859236374889984</v>
+      </c>
+      <c r="H29">
+        <v>-0.053510923214324</v>
+      </c>
+      <c r="I29">
+        <v>0.05053614334166213</v>
+      </c>
+      <c r="J29">
+        <v>-0.03186743201942835</v>
+      </c>
+      <c r="K29">
+        <v>-0.03920753860664428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.15369607153197</v>
+        <v>0.1326492600430198</v>
       </c>
       <c r="C30">
-        <v>0.06543682853590731</v>
+        <v>-0.05492333144651034</v>
       </c>
       <c r="D30">
-        <v>-0.07538649288055453</v>
+        <v>0.02351284821992684</v>
       </c>
       <c r="E30">
-        <v>-0.05277968698456707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02203384370306106</v>
+      </c>
+      <c r="F30">
+        <v>0.1189279770327858</v>
+      </c>
+      <c r="G30">
+        <v>-0.05004956691809276</v>
+      </c>
+      <c r="H30">
+        <v>0.1049158263782072</v>
+      </c>
+      <c r="I30">
+        <v>0.3250189607795405</v>
+      </c>
+      <c r="J30">
+        <v>0.05939245775946387</v>
+      </c>
+      <c r="K30">
+        <v>-0.2137108325679491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.06034795441097376</v>
+        <v>0.04989852216576391</v>
       </c>
       <c r="C31">
-        <v>0.01494918170443178</v>
+        <v>-0.03579792205739523</v>
       </c>
       <c r="D31">
-        <v>-0.02481772160778042</v>
+        <v>0.006396294602120781</v>
       </c>
       <c r="E31">
-        <v>-0.005483650323559884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008801654964404918</v>
+      </c>
+      <c r="F31">
+        <v>0.01977712316330674</v>
+      </c>
+      <c r="G31">
+        <v>-0.004969481600403001</v>
+      </c>
+      <c r="H31">
+        <v>-0.04822565283104634</v>
+      </c>
+      <c r="I31">
+        <v>0.04225577486194827</v>
+      </c>
+      <c r="J31">
+        <v>-0.03662767460777996</v>
+      </c>
+      <c r="K31">
+        <v>-0.01714689840986061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04742405141119396</v>
+        <v>0.05105578328334323</v>
       </c>
       <c r="C32">
-        <v>0.0137399669630899</v>
+        <v>0.004858936753234448</v>
       </c>
       <c r="D32">
-        <v>-0.01341679892021674</v>
+        <v>-0.0244949220215744</v>
       </c>
       <c r="E32">
-        <v>-0.005514919328645483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.008287891063431117</v>
+      </c>
+      <c r="F32">
+        <v>0.08558567116862145</v>
+      </c>
+      <c r="G32">
+        <v>0.004056243483641048</v>
+      </c>
+      <c r="H32">
+        <v>-0.004632448179750552</v>
+      </c>
+      <c r="I32">
+        <v>-0.023101357863094</v>
+      </c>
+      <c r="J32">
+        <v>0.0648641672841465</v>
+      </c>
+      <c r="K32">
+        <v>-0.1305496244963776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1037337233153361</v>
+        <v>0.1045056875160943</v>
       </c>
       <c r="C33">
-        <v>0.02905187562215018</v>
+        <v>-0.04554268880573754</v>
       </c>
       <c r="D33">
-        <v>-0.03709795265207514</v>
+        <v>0.01046855364623377</v>
       </c>
       <c r="E33">
-        <v>-0.009964622024597511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01645888604301234</v>
+      </c>
+      <c r="F33">
+        <v>0.03154688155818892</v>
+      </c>
+      <c r="G33">
+        <v>-0.009144618833270744</v>
+      </c>
+      <c r="H33">
+        <v>-0.02052755057299744</v>
+      </c>
+      <c r="I33">
+        <v>0.07059193881872376</v>
+      </c>
+      <c r="J33">
+        <v>-0.02262303798914025</v>
+      </c>
+      <c r="K33">
+        <v>-0.03128310950156159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06533813963927042</v>
+        <v>0.07106084570092788</v>
       </c>
       <c r="C34">
-        <v>0.05684746264757639</v>
+        <v>-0.04806014356202844</v>
       </c>
       <c r="D34">
-        <v>-0.0222230757516014</v>
+        <v>0.01740112989776941</v>
       </c>
       <c r="E34">
-        <v>-0.02731938540951879</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01288030789979276</v>
+      </c>
+      <c r="F34">
+        <v>0.025335228945649</v>
+      </c>
+      <c r="G34">
+        <v>-0.04119801642363993</v>
+      </c>
+      <c r="H34">
+        <v>-0.02107475247631977</v>
+      </c>
+      <c r="I34">
+        <v>0.06662693360402795</v>
+      </c>
+      <c r="J34">
+        <v>-0.002991510215752215</v>
+      </c>
+      <c r="K34">
+        <v>0.05238362431716651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04423200402340692</v>
+        <v>0.03747609563939622</v>
       </c>
       <c r="C35">
-        <v>0.01199022549401577</v>
+        <v>-0.01922281606880642</v>
       </c>
       <c r="D35">
-        <v>-0.01846316033787278</v>
+        <v>0.009840621509320182</v>
       </c>
       <c r="E35">
-        <v>-0.006054353679846068</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01133128806089318</v>
+      </c>
+      <c r="F35">
+        <v>0.0149689932913298</v>
+      </c>
+      <c r="G35">
+        <v>-0.01040686734637973</v>
+      </c>
+      <c r="H35">
+        <v>-0.01746362962742333</v>
+      </c>
+      <c r="I35">
+        <v>0.06042706631833768</v>
+      </c>
+      <c r="J35">
+        <v>-0.005124464319526281</v>
+      </c>
+      <c r="K35">
+        <v>-0.004253503280867064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03957262881142865</v>
+        <v>0.0349891277882769</v>
       </c>
       <c r="C36">
-        <v>0.01759842841703031</v>
+        <v>-0.01455225533356735</v>
       </c>
       <c r="D36">
-        <v>-0.01174331256546722</v>
+        <v>-0.003315790334990173</v>
       </c>
       <c r="E36">
-        <v>-0.03317203268082972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02013916952956082</v>
+      </c>
+      <c r="F36">
+        <v>0.03634546732761182</v>
+      </c>
+      <c r="G36">
+        <v>-0.02377207737425644</v>
+      </c>
+      <c r="H36">
+        <v>-0.01087920432812969</v>
+      </c>
+      <c r="I36">
+        <v>0.07089088353651202</v>
+      </c>
+      <c r="J36">
+        <v>-0.01507859665215001</v>
+      </c>
+      <c r="K36">
+        <v>-0.04108044925996904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06628142317637041</v>
+        <v>0.05595491338688827</v>
       </c>
       <c r="C38">
-        <v>0.005643594674812215</v>
+        <v>-0.03031310569365825</v>
       </c>
       <c r="D38">
-        <v>0.01914971045961668</v>
+        <v>-0.03138747212820072</v>
       </c>
       <c r="E38">
-        <v>0.0130223532479183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01019326971163341</v>
+      </c>
+      <c r="F38">
+        <v>8.56465504745656e-05</v>
+      </c>
+      <c r="G38">
+        <v>0.002936607109530543</v>
+      </c>
+      <c r="H38">
+        <v>-0.01740153490310053</v>
+      </c>
+      <c r="I38">
+        <v>-0.0230014895687395</v>
+      </c>
+      <c r="J38">
+        <v>0.02900709102404165</v>
+      </c>
+      <c r="K38">
+        <v>-0.05073569640537298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09570127439473765</v>
+        <v>0.1004137590393276</v>
       </c>
       <c r="C39">
-        <v>0.04114035417608172</v>
+        <v>-0.04967522067262282</v>
       </c>
       <c r="D39">
-        <v>-0.04164483986032985</v>
+        <v>0.02740425393020574</v>
       </c>
       <c r="E39">
-        <v>-0.009436618374184257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.005975062184233391</v>
+      </c>
+      <c r="F39">
+        <v>0.04035326024349813</v>
+      </c>
+      <c r="G39">
+        <v>-0.0492628950225481</v>
+      </c>
+      <c r="H39">
+        <v>0.004467866767362183</v>
+      </c>
+      <c r="I39">
+        <v>0.1097498817859943</v>
+      </c>
+      <c r="J39">
+        <v>0.1192614737242956</v>
+      </c>
+      <c r="K39">
+        <v>0.01617467751184161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07406991478048053</v>
+        <v>0.04938861288735397</v>
       </c>
       <c r="C40">
-        <v>0.01511105328379305</v>
+        <v>-0.04206627316286429</v>
       </c>
       <c r="D40">
-        <v>-0.02982254654522251</v>
+        <v>-0.0347241306180951</v>
       </c>
       <c r="E40">
-        <v>-0.02443975456208744</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01551834379326997</v>
+      </c>
+      <c r="F40">
+        <v>0.06479733731416669</v>
+      </c>
+      <c r="G40">
+        <v>-0.05364441460442717</v>
+      </c>
+      <c r="H40">
+        <v>0.09207809983835494</v>
+      </c>
+      <c r="I40">
+        <v>0.2108346739248622</v>
+      </c>
+      <c r="J40">
+        <v>0.2239797869808929</v>
+      </c>
+      <c r="K40">
+        <v>-0.04387922294046537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06289215144962543</v>
+        <v>0.05001825580653355</v>
       </c>
       <c r="C41">
-        <v>0.02614898253441313</v>
+        <v>-0.03365304722957614</v>
       </c>
       <c r="D41">
-        <v>-0.005966746694804208</v>
+        <v>0.001989870959174651</v>
       </c>
       <c r="E41">
-        <v>0.003457098076544358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001921459712881413</v>
+      </c>
+      <c r="F41">
+        <v>-0.0186453879636095</v>
+      </c>
+      <c r="G41">
+        <v>-0.02005984222252849</v>
+      </c>
+      <c r="H41">
+        <v>-0.03175648619081362</v>
+      </c>
+      <c r="I41">
+        <v>0.02356032831503127</v>
+      </c>
+      <c r="J41">
+        <v>0.03291301673715611</v>
+      </c>
+      <c r="K41">
+        <v>-0.03255601122260149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06190040491426957</v>
+        <v>0.06160132855155036</v>
       </c>
       <c r="C43">
-        <v>0.01155371042177601</v>
+        <v>-0.03321221409469653</v>
       </c>
       <c r="D43">
-        <v>-0.01906149794373727</v>
+        <v>0.0120682753591458</v>
       </c>
       <c r="E43">
-        <v>-0.01818276116564788</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01744748284158883</v>
+      </c>
+      <c r="F43">
+        <v>0.01616277719481264</v>
+      </c>
+      <c r="G43">
+        <v>0.002601153821762379</v>
+      </c>
+      <c r="H43">
+        <v>-0.05152979216337922</v>
+      </c>
+      <c r="I43">
+        <v>0.02457956253246487</v>
+      </c>
+      <c r="J43">
+        <v>0.008400686733286575</v>
+      </c>
+      <c r="K43">
+        <v>-0.00894127441611312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09207938078642147</v>
+        <v>0.09508994724949153</v>
       </c>
       <c r="C44">
-        <v>0.05342983290573333</v>
+        <v>-0.05298988430913215</v>
       </c>
       <c r="D44">
-        <v>-0.02347359584736664</v>
+        <v>-0.004876044112915313</v>
       </c>
       <c r="E44">
-        <v>-0.07971661925286624</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07519896167449776</v>
+      </c>
+      <c r="F44">
+        <v>0.1122469565651847</v>
+      </c>
+      <c r="G44">
+        <v>-0.07812437067516029</v>
+      </c>
+      <c r="H44">
+        <v>-0.0187581957496344</v>
+      </c>
+      <c r="I44">
+        <v>0.1507235129908053</v>
+      </c>
+      <c r="J44">
+        <v>0.04785338024379395</v>
+      </c>
+      <c r="K44">
+        <v>-0.008507736871164304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03257381002336324</v>
+        <v>0.04616727071218759</v>
       </c>
       <c r="C46">
-        <v>0.03118102344565992</v>
+        <v>-0.02995245625136638</v>
       </c>
       <c r="D46">
-        <v>-0.01553347487589856</v>
+        <v>0.01256169323517354</v>
       </c>
       <c r="E46">
-        <v>-0.0241724738389037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01842254080797426</v>
+      </c>
+      <c r="F46">
+        <v>0.04540610554916345</v>
+      </c>
+      <c r="G46">
+        <v>-0.003279521707817673</v>
+      </c>
+      <c r="H46">
+        <v>-0.006244763377125116</v>
+      </c>
+      <c r="I46">
+        <v>0.01749490327490141</v>
+      </c>
+      <c r="J46">
+        <v>-0.03490033091814266</v>
+      </c>
+      <c r="K46">
+        <v>-0.04803762649171869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03796811066014448</v>
+        <v>0.04721814707317485</v>
       </c>
       <c r="C47">
-        <v>-0.01014097592459897</v>
+        <v>-0.005339172444278607</v>
       </c>
       <c r="D47">
-        <v>-0.01020268469928931</v>
+        <v>-0.001913102171285426</v>
       </c>
       <c r="E47">
-        <v>-0.02054271998290872</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.005743476097413316</v>
+      </c>
+      <c r="F47">
+        <v>0.04077586069431414</v>
+      </c>
+      <c r="G47">
+        <v>0.01826217705464525</v>
+      </c>
+      <c r="H47">
+        <v>-0.01339860720683335</v>
+      </c>
+      <c r="I47">
+        <v>0.02902453699971234</v>
+      </c>
+      <c r="J47">
+        <v>-0.04054471548389492</v>
+      </c>
+      <c r="K47">
+        <v>0.00527083892079438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05295871979075931</v>
+        <v>0.04606178525701112</v>
       </c>
       <c r="C48">
-        <v>0.02281813945437649</v>
+        <v>-0.0171248183773211</v>
       </c>
       <c r="D48">
-        <v>-0.02436347236973829</v>
+        <v>-0.01123540385030438</v>
       </c>
       <c r="E48">
-        <v>-0.03000096727425079</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.000122886447828509</v>
+      </c>
+      <c r="F48">
+        <v>0.04827746066622134</v>
+      </c>
+      <c r="G48">
+        <v>-0.007592553272739462</v>
+      </c>
+      <c r="H48">
+        <v>0.006613232957403846</v>
+      </c>
+      <c r="I48">
+        <v>0.04988443875249009</v>
+      </c>
+      <c r="J48">
+        <v>-0.02023130930429871</v>
+      </c>
+      <c r="K48">
+        <v>-0.0445070748665997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1457022951255444</v>
+        <v>0.2014654713128959</v>
       </c>
       <c r="C49">
-        <v>-0.0009693207786102669</v>
+        <v>-0.01112325335443033</v>
       </c>
       <c r="D49">
-        <v>-0.07375988718789987</v>
+        <v>0.1645097532738936</v>
       </c>
       <c r="E49">
-        <v>-0.01931762967270458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.02204992315736166</v>
+      </c>
+      <c r="F49">
+        <v>-0.1190431219869093</v>
+      </c>
+      <c r="G49">
+        <v>0.1271218847050456</v>
+      </c>
+      <c r="H49">
+        <v>0.148622660421126</v>
+      </c>
+      <c r="I49">
+        <v>-0.1473192653005627</v>
+      </c>
+      <c r="J49">
+        <v>0.08800172465283079</v>
+      </c>
+      <c r="K49">
+        <v>0.2081264185168157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06644394410101835</v>
+        <v>0.05762353224351135</v>
       </c>
       <c r="C50">
-        <v>0.01957295177872664</v>
+        <v>-0.03136547071023765</v>
       </c>
       <c r="D50">
-        <v>-0.03015333618812699</v>
+        <v>0.009097597784827721</v>
       </c>
       <c r="E50">
-        <v>-0.009022284332823247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01516743340822449</v>
+      </c>
+      <c r="F50">
+        <v>0.03096690657284923</v>
+      </c>
+      <c r="G50">
+        <v>-0.01578514790789008</v>
+      </c>
+      <c r="H50">
+        <v>-0.05637163880776207</v>
+      </c>
+      <c r="I50">
+        <v>0.03508365377898885</v>
+      </c>
+      <c r="J50">
+        <v>-0.05432220198388433</v>
+      </c>
+      <c r="K50">
+        <v>-0.03007106707509779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.0338441221684303</v>
+        <v>0.03977733426996317</v>
       </c>
       <c r="C51">
-        <v>-0.007280872244622205</v>
+        <v>0.001861136152498768</v>
       </c>
       <c r="D51">
-        <v>0.01635227386997497</v>
+        <v>-0.01306892323532304</v>
       </c>
       <c r="E51">
-        <v>-0.004533627602403128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02717553872578021</v>
+      </c>
+      <c r="F51">
+        <v>-0.02080598182828125</v>
+      </c>
+      <c r="G51">
+        <v>0.02090926579613963</v>
+      </c>
+      <c r="H51">
+        <v>0.01687987107249657</v>
+      </c>
+      <c r="I51">
+        <v>-0.002207070118484201</v>
+      </c>
+      <c r="J51">
+        <v>0.04237982700554914</v>
+      </c>
+      <c r="K51">
+        <v>0.06869461110854465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1561814739419836</v>
+        <v>0.1568072157736655</v>
       </c>
       <c r="C53">
-        <v>-0.03643680049511072</v>
+        <v>-0.01243594722249407</v>
       </c>
       <c r="D53">
-        <v>-0.06139958678306895</v>
+        <v>0.06428417003315123</v>
       </c>
       <c r="E53">
-        <v>-0.007109753493466386</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.008704807889434814</v>
+      </c>
+      <c r="F53">
+        <v>-0.01656900817401894</v>
+      </c>
+      <c r="G53">
+        <v>0.01992662321671178</v>
+      </c>
+      <c r="H53">
+        <v>-0.2403884392213553</v>
+      </c>
+      <c r="I53">
+        <v>-0.04177221562842802</v>
+      </c>
+      <c r="J53">
+        <v>-0.04227868708730073</v>
+      </c>
+      <c r="K53">
+        <v>0.05379711601529593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06441096158816492</v>
+        <v>0.06313571736633823</v>
       </c>
       <c r="C54">
-        <v>0.013959858730234</v>
+        <v>-0.009915150611254026</v>
       </c>
       <c r="D54">
-        <v>-0.01427539826834553</v>
+        <v>-0.006143931180470197</v>
       </c>
       <c r="E54">
-        <v>-0.03383881515531832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01325057972609034</v>
+      </c>
+      <c r="F54">
+        <v>0.07215334730374136</v>
+      </c>
+      <c r="G54">
+        <v>-0.03877964169968062</v>
+      </c>
+      <c r="H54">
+        <v>0.009307818941857471</v>
+      </c>
+      <c r="I54">
+        <v>0.1189463101613968</v>
+      </c>
+      <c r="J54">
+        <v>-0.04240768553775238</v>
+      </c>
+      <c r="K54">
+        <v>-0.07296235647718041</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09804634695278848</v>
+        <v>0.09695807285429674</v>
       </c>
       <c r="C55">
-        <v>-0.002460923422183407</v>
+        <v>-0.02696716373578983</v>
       </c>
       <c r="D55">
-        <v>-0.04763796964801865</v>
+        <v>0.03933078889104844</v>
       </c>
       <c r="E55">
-        <v>-0.0307273270604538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.01083812126316403</v>
+      </c>
+      <c r="F55">
+        <v>0.01106226240003123</v>
+      </c>
+      <c r="G55">
+        <v>-0.02945670457661811</v>
+      </c>
+      <c r="H55">
+        <v>-0.1701015490581029</v>
+      </c>
+      <c r="I55">
+        <v>0.01304167712171584</v>
+      </c>
+      <c r="J55">
+        <v>-0.04296768415916056</v>
+      </c>
+      <c r="K55">
+        <v>0.0459058890582697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1544331174024954</v>
+        <v>0.1528351460307799</v>
       </c>
       <c r="C56">
-        <v>-0.03122234575261704</v>
+        <v>-0.03226748293385213</v>
       </c>
       <c r="D56">
-        <v>-0.07750269660624015</v>
+        <v>0.06714817006781955</v>
       </c>
       <c r="E56">
-        <v>-0.04401400568345971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.003149337186351475</v>
+      </c>
+      <c r="F56">
+        <v>0.003049912653081371</v>
+      </c>
+      <c r="G56">
+        <v>-0.0117738318279388</v>
+      </c>
+      <c r="H56">
+        <v>-0.2394113617966105</v>
+      </c>
+      <c r="I56">
+        <v>-0.04861967723662117</v>
+      </c>
+      <c r="J56">
+        <v>-0.009453930601722902</v>
+      </c>
+      <c r="K56">
+        <v>0.01418505270055021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1207865354901436</v>
+        <v>0.08126481435043165</v>
       </c>
       <c r="C58">
-        <v>0.05415064696942612</v>
+        <v>-0.04438148647606437</v>
       </c>
       <c r="D58">
-        <v>0.1109593459982201</v>
+        <v>-0.1630969670433755</v>
       </c>
       <c r="E58">
-        <v>-0.1267988309953158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.07595736613647765</v>
+      </c>
+      <c r="F58">
+        <v>0.03857725004095534</v>
+      </c>
+      <c r="G58">
+        <v>0.09862883028446218</v>
+      </c>
+      <c r="H58">
+        <v>0.2820989080534488</v>
+      </c>
+      <c r="I58">
+        <v>0.4500049868060633</v>
+      </c>
+      <c r="J58">
+        <v>-0.07010152915906873</v>
+      </c>
+      <c r="K58">
+        <v>0.2726216717860261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1229837326818604</v>
+        <v>0.1622589244471398</v>
       </c>
       <c r="C59">
-        <v>-0.4400080530892122</v>
+        <v>0.3588839533016059</v>
       </c>
       <c r="D59">
-        <v>0.03504200534620784</v>
+        <v>-0.02328050839989936</v>
       </c>
       <c r="E59">
-        <v>-0.0853456377504456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02966770337502133</v>
+      </c>
+      <c r="F59">
+        <v>-0.01420362708925102</v>
+      </c>
+      <c r="G59">
+        <v>-0.01448007913176086</v>
+      </c>
+      <c r="H59">
+        <v>-0.05157418195266834</v>
+      </c>
+      <c r="I59">
+        <v>-0.000400602116376535</v>
+      </c>
+      <c r="J59">
+        <v>0.07355001120956819</v>
+      </c>
+      <c r="K59">
+        <v>-0.002710023927637188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2182604599133298</v>
+        <v>0.2447438317356408</v>
       </c>
       <c r="C60">
-        <v>-0.03108066567875506</v>
+        <v>-0.03105541588151919</v>
       </c>
       <c r="D60">
-        <v>-0.07286857357394032</v>
+        <v>0.1224241416312446</v>
       </c>
       <c r="E60">
-        <v>-0.0565234389685154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.03798285411546228</v>
+      </c>
+      <c r="F60">
+        <v>-0.07352757286729836</v>
+      </c>
+      <c r="G60">
+        <v>0.01934965160842958</v>
+      </c>
+      <c r="H60">
+        <v>0.09307863931245569</v>
+      </c>
+      <c r="I60">
+        <v>-0.1781051847306488</v>
+      </c>
+      <c r="J60">
+        <v>-0.05612288072633478</v>
+      </c>
+      <c r="K60">
+        <v>0.1398965233836692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0807759720463183</v>
+        <v>0.08851950541907642</v>
       </c>
       <c r="C61">
-        <v>0.02255823153924023</v>
+        <v>-0.03710217113214592</v>
       </c>
       <c r="D61">
-        <v>-0.02879880592303835</v>
+        <v>0.02586576356407345</v>
       </c>
       <c r="E61">
-        <v>-0.007910631259276921</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0101526825493564</v>
+      </c>
+      <c r="F61">
+        <v>0.0238083692495269</v>
+      </c>
+      <c r="G61">
+        <v>-0.05078647088352996</v>
+      </c>
+      <c r="H61">
+        <v>-0.04456350741061082</v>
+      </c>
+      <c r="I61">
+        <v>0.07414038733205956</v>
+      </c>
+      <c r="J61">
+        <v>0.06024064939525055</v>
+      </c>
+      <c r="K61">
+        <v>-0.00204457269137171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1480601971957077</v>
+        <v>0.1466954082054908</v>
       </c>
       <c r="C62">
-        <v>-0.02850399702376923</v>
+        <v>-0.03395987410813606</v>
       </c>
       <c r="D62">
-        <v>-0.03521274175041784</v>
+        <v>0.04284133209497073</v>
       </c>
       <c r="E62">
-        <v>0.01369199909554418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03203069556151919</v>
+      </c>
+      <c r="F62">
+        <v>-0.03602497656897253</v>
+      </c>
+      <c r="G62">
+        <v>-0.02930460784906246</v>
+      </c>
+      <c r="H62">
+        <v>-0.2327991351770746</v>
+      </c>
+      <c r="I62">
+        <v>-0.07330047283714573</v>
+      </c>
+      <c r="J62">
+        <v>-0.0732027132596083</v>
+      </c>
+      <c r="K62">
+        <v>0.005729813050056075</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06252523204369471</v>
+        <v>0.05454111724638887</v>
       </c>
       <c r="C63">
-        <v>0.02711866675369179</v>
+        <v>-0.02171833975106969</v>
       </c>
       <c r="D63">
-        <v>-0.01811823781925138</v>
+        <v>0.004353307998109767</v>
       </c>
       <c r="E63">
-        <v>-0.01757239334469898</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007093803851376193</v>
+      </c>
+      <c r="F63">
+        <v>0.03050341092564612</v>
+      </c>
+      <c r="G63">
+        <v>-0.05163175207794975</v>
+      </c>
+      <c r="H63">
+        <v>-0.01143239569946379</v>
+      </c>
+      <c r="I63">
+        <v>0.03842217204500935</v>
+      </c>
+      <c r="J63">
+        <v>-0.04345068196071591</v>
+      </c>
+      <c r="K63">
+        <v>-0.04090461271705993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.103255728556934</v>
+        <v>0.1074741691812636</v>
       </c>
       <c r="C64">
-        <v>-0.0009685856605344569</v>
+        <v>-0.01912596842679673</v>
       </c>
       <c r="D64">
-        <v>-0.04676892491234302</v>
+        <v>0.04006494448922199</v>
       </c>
       <c r="E64">
-        <v>-0.03283095485655893</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02649824905683858</v>
+      </c>
+      <c r="F64">
+        <v>0.05754904499984582</v>
+      </c>
+      <c r="G64">
+        <v>-0.05151652442193303</v>
+      </c>
+      <c r="H64">
+        <v>0.01845060185030965</v>
+      </c>
+      <c r="I64">
+        <v>0.05019053137246666</v>
+      </c>
+      <c r="J64">
+        <v>0.03513990183292831</v>
+      </c>
+      <c r="K64">
+        <v>-0.01884140163850328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1208077978971235</v>
+        <v>0.1317688818552018</v>
       </c>
       <c r="C65">
-        <v>0.0231230993986868</v>
+        <v>-0.00628785756556789</v>
       </c>
       <c r="D65">
-        <v>-0.04155337057128378</v>
+        <v>0.05581237701939551</v>
       </c>
       <c r="E65">
-        <v>-0.05884032224703031</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.000689481001758596</v>
+      </c>
+      <c r="F65">
+        <v>0.04396802153166478</v>
+      </c>
+      <c r="G65">
+        <v>-0.09040195869785317</v>
+      </c>
+      <c r="H65">
+        <v>0.2363586039122261</v>
+      </c>
+      <c r="I65">
+        <v>-0.071882259042444</v>
+      </c>
+      <c r="J65">
+        <v>-0.6544739170167398</v>
+      </c>
+      <c r="K65">
+        <v>0.01553709028196702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1604234287974149</v>
+        <v>0.148809435882128</v>
       </c>
       <c r="C66">
-        <v>0.07428083376409345</v>
+        <v>-0.09508497943167449</v>
       </c>
       <c r="D66">
-        <v>-0.05244625959746983</v>
+        <v>0.04017351353898642</v>
       </c>
       <c r="E66">
-        <v>-0.0147086013693203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.001778670682946761</v>
+      </c>
+      <c r="F66">
+        <v>0.01758173070763819</v>
+      </c>
+      <c r="G66">
+        <v>-0.08627507919716297</v>
+      </c>
+      <c r="H66">
+        <v>-0.01972491346473814</v>
+      </c>
+      <c r="I66">
+        <v>0.1597832481750197</v>
+      </c>
+      <c r="J66">
+        <v>0.1914441524658102</v>
+      </c>
+      <c r="K66">
+        <v>-0.03700856738268874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09588111008306527</v>
+        <v>0.09828304929291487</v>
       </c>
       <c r="C67">
-        <v>0.005102105725188422</v>
+        <v>-0.03967407453914262</v>
       </c>
       <c r="D67">
-        <v>0.02261901800562252</v>
+        <v>-0.01239918093913245</v>
       </c>
       <c r="E67">
-        <v>-0.003997567675788346</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02998378796448355</v>
+      </c>
+      <c r="F67">
+        <v>-0.01807996744974233</v>
+      </c>
+      <c r="G67">
+        <v>0.01135368990106189</v>
+      </c>
+      <c r="H67">
+        <v>-0.01621722075017852</v>
+      </c>
+      <c r="I67">
+        <v>-0.04612226669393064</v>
+      </c>
+      <c r="J67">
+        <v>0.06074052319585881</v>
+      </c>
+      <c r="K67">
+        <v>-0.03852450159772805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04134337227922855</v>
+        <v>0.07539514374509612</v>
       </c>
       <c r="C68">
-        <v>-0.2576864175482177</v>
+        <v>0.2809340088845254</v>
       </c>
       <c r="D68">
-        <v>0.0244484607004242</v>
+        <v>-0.02157072353140959</v>
       </c>
       <c r="E68">
-        <v>-0.0441126152826881</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01536335156915551</v>
+      </c>
+      <c r="F68">
+        <v>0.04042023732125529</v>
+      </c>
+      <c r="G68">
+        <v>0.003746515897009543</v>
+      </c>
+      <c r="H68">
+        <v>-0.0145594887343899</v>
+      </c>
+      <c r="I68">
+        <v>0.02925618136326567</v>
+      </c>
+      <c r="J68">
+        <v>-0.04299212576642945</v>
+      </c>
+      <c r="K68">
+        <v>-0.01051907981375461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.0684564286378741</v>
+        <v>0.05784790274897622</v>
       </c>
       <c r="C69">
-        <v>0.0109456326424972</v>
+        <v>-0.01671897960770282</v>
       </c>
       <c r="D69">
-        <v>-0.0009747160842422322</v>
+        <v>-0.01929683896505751</v>
       </c>
       <c r="E69">
-        <v>-0.01562033292887941</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007275638918590411</v>
+      </c>
+      <c r="F69">
+        <v>0.01108333960041508</v>
+      </c>
+      <c r="G69">
+        <v>0.001390646295915762</v>
+      </c>
+      <c r="H69">
+        <v>-0.03070576828818089</v>
+      </c>
+      <c r="I69">
+        <v>0.01898752334178568</v>
+      </c>
+      <c r="J69">
+        <v>-0.003269348876012115</v>
+      </c>
+      <c r="K69">
+        <v>0.006982189973933076</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01358625003152379</v>
+        <v>0.03782956432595846</v>
       </c>
       <c r="C70">
-        <v>-0.01158354818251893</v>
+        <v>-0.003586464824336038</v>
       </c>
       <c r="D70">
-        <v>0.005210749224448339</v>
+        <v>0.002599692616269016</v>
       </c>
       <c r="E70">
-        <v>0.01546971548740281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.003022420034846301</v>
+      </c>
+      <c r="F70">
+        <v>-0.05203585867928882</v>
+      </c>
+      <c r="G70">
+        <v>0.009285519833320426</v>
+      </c>
+      <c r="H70">
+        <v>0.04237481959563159</v>
+      </c>
+      <c r="I70">
+        <v>-0.02234580201915467</v>
+      </c>
+      <c r="J70">
+        <v>0.03080401231459457</v>
+      </c>
+      <c r="K70">
+        <v>-0.1235210832404675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.03747000048590286</v>
+        <v>0.08346290852264525</v>
       </c>
       <c r="C71">
-        <v>-0.2886076470851736</v>
+        <v>0.3012335412918997</v>
       </c>
       <c r="D71">
-        <v>0.03471948619973501</v>
+        <v>-0.01307866005095768</v>
       </c>
       <c r="E71">
-        <v>-0.08086868837970318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03393201589976649</v>
+      </c>
+      <c r="F71">
+        <v>0.03337183961696752</v>
+      </c>
+      <c r="G71">
+        <v>-0.002566504222465009</v>
+      </c>
+      <c r="H71">
+        <v>-0.01526904902431417</v>
+      </c>
+      <c r="I71">
+        <v>0.0229961316786412</v>
+      </c>
+      <c r="J71">
+        <v>-0.01417260893794276</v>
+      </c>
+      <c r="K71">
+        <v>0.0002562558108827857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1474964740874496</v>
+        <v>0.1379503842092622</v>
       </c>
       <c r="C72">
-        <v>-0.04618179180612082</v>
+        <v>0.001787830060620915</v>
       </c>
       <c r="D72">
-        <v>-0.0338724532601825</v>
+        <v>-0.01717843594704889</v>
       </c>
       <c r="E72">
-        <v>0.2279883180758467</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.1729403239367991</v>
+      </c>
+      <c r="F72">
+        <v>-0.03316366018003837</v>
+      </c>
+      <c r="G72">
+        <v>-0.1152205947067911</v>
+      </c>
+      <c r="H72">
+        <v>-0.01403109225252358</v>
+      </c>
+      <c r="I72">
+        <v>-0.03352757204924695</v>
+      </c>
+      <c r="J72">
+        <v>-0.09807645430464131</v>
+      </c>
+      <c r="K72">
+        <v>0.116490596476203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2509697918817284</v>
+        <v>0.2478296112406586</v>
       </c>
       <c r="C73">
-        <v>0.03853701929806289</v>
+        <v>-0.09465164617006372</v>
       </c>
       <c r="D73">
-        <v>-0.1016841694095707</v>
+        <v>0.1841400754819542</v>
       </c>
       <c r="E73">
-        <v>-0.06790553470969971</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08241037346618349</v>
+      </c>
+      <c r="F73">
+        <v>-0.2377323674224517</v>
+      </c>
+      <c r="G73">
+        <v>0.1879642669692019</v>
+      </c>
+      <c r="H73">
+        <v>0.2215914648071199</v>
+      </c>
+      <c r="I73">
+        <v>-0.08601578199172412</v>
+      </c>
+      <c r="J73">
+        <v>0.2382479745816777</v>
+      </c>
+      <c r="K73">
+        <v>0.4967973912237943</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08632190108538633</v>
+        <v>0.0924125331074032</v>
       </c>
       <c r="C74">
-        <v>-0.01870130036025001</v>
+        <v>-0.02767158375827189</v>
       </c>
       <c r="D74">
-        <v>-0.05584178622613704</v>
+        <v>0.04912243167687442</v>
       </c>
       <c r="E74">
-        <v>-0.0028659165130096</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01608894579339081</v>
+      </c>
+      <c r="F74">
+        <v>0.003862124445006414</v>
+      </c>
+      <c r="G74">
+        <v>0.02752903250537338</v>
+      </c>
+      <c r="H74">
+        <v>-0.1418721160053048</v>
+      </c>
+      <c r="I74">
+        <v>0.01967336265004236</v>
+      </c>
+      <c r="J74">
+        <v>-0.00937705703849756</v>
+      </c>
+      <c r="K74">
+        <v>0.0606881170983293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1217378239772059</v>
+        <v>0.1055290026255004</v>
       </c>
       <c r="C75">
-        <v>-0.00274510437279399</v>
+        <v>-0.02807708208904007</v>
       </c>
       <c r="D75">
-        <v>-0.004646756953635633</v>
+        <v>-0.01564830772299321</v>
       </c>
       <c r="E75">
-        <v>-0.02197641561344734</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.004815092141399577</v>
+      </c>
+      <c r="F75">
+        <v>-0.02151454995879042</v>
+      </c>
+      <c r="G75">
+        <v>0.01067688505763498</v>
+      </c>
+      <c r="H75">
+        <v>-0.1225941937043748</v>
+      </c>
+      <c r="I75">
+        <v>-0.03584919937459532</v>
+      </c>
+      <c r="J75">
+        <v>-0.0339869942295528</v>
+      </c>
+      <c r="K75">
+        <v>0.00530454801227861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1458012265296199</v>
+        <v>0.1324027269554664</v>
       </c>
       <c r="C76">
-        <v>-0.00161607157551755</v>
+        <v>-0.0502597465936112</v>
       </c>
       <c r="D76">
-        <v>-0.06304462731802901</v>
+        <v>0.05880657661097088</v>
       </c>
       <c r="E76">
-        <v>-0.03431582164381702</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.01126781521903104</v>
+      </c>
+      <c r="F76">
+        <v>0.01159100877251113</v>
+      </c>
+      <c r="G76">
+        <v>-0.01612918336002541</v>
+      </c>
+      <c r="H76">
+        <v>-0.2777893851295192</v>
+      </c>
+      <c r="I76">
+        <v>-0.0249837529010086</v>
+      </c>
+      <c r="J76">
+        <v>-0.04247717237807486</v>
+      </c>
+      <c r="K76">
+        <v>0.03609128691866909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1417491455905973</v>
+        <v>0.0970483920643504</v>
       </c>
       <c r="C77">
-        <v>0.0649794409639598</v>
+        <v>-0.04586349537888559</v>
       </c>
       <c r="D77">
-        <v>0.08543303140175115</v>
+        <v>-0.1767511252413196</v>
       </c>
       <c r="E77">
-        <v>-0.07707619192736496</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0903935923724376</v>
+      </c>
+      <c r="F77">
+        <v>0.0767227321649834</v>
+      </c>
+      <c r="G77">
+        <v>-0.7393749003109706</v>
+      </c>
+      <c r="H77">
+        <v>0.1875248105135066</v>
+      </c>
+      <c r="I77">
+        <v>-0.3846917902777462</v>
+      </c>
+      <c r="J77">
+        <v>0.2460149998827085</v>
+      </c>
+      <c r="K77">
+        <v>0.005152034767910599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1194498189823872</v>
+        <v>0.1560708070114702</v>
       </c>
       <c r="C78">
-        <v>0.05866546274176486</v>
+        <v>-0.07115343168682071</v>
       </c>
       <c r="D78">
-        <v>-0.05129722234011212</v>
+        <v>0.02220993684243432</v>
       </c>
       <c r="E78">
-        <v>-0.01160655536304106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04613527829579132</v>
+      </c>
+      <c r="F78">
+        <v>0.1677357920128686</v>
+      </c>
+      <c r="G78">
+        <v>0.009981262358652441</v>
+      </c>
+      <c r="H78">
+        <v>0.1497714290870758</v>
+      </c>
+      <c r="I78">
+        <v>-0.05157429556464056</v>
+      </c>
+      <c r="J78">
+        <v>-0.0375721448720326</v>
+      </c>
+      <c r="K78">
+        <v>0.005969122757357741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1539118387211781</v>
+        <v>0.1465320987907535</v>
       </c>
       <c r="C79">
-        <v>0.01948526258982973</v>
+        <v>-0.04254991568925742</v>
       </c>
       <c r="D79">
-        <v>-0.05602614374302099</v>
+        <v>0.03921362068333099</v>
       </c>
       <c r="E79">
-        <v>-0.006105980747373014</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.00111011454179125</v>
+      </c>
+      <c r="F79">
+        <v>-0.004053885192159315</v>
+      </c>
+      <c r="G79">
+        <v>-0.04461561406946559</v>
+      </c>
+      <c r="H79">
+        <v>-0.1979171154477941</v>
+      </c>
+      <c r="I79">
+        <v>-0.04907536657871076</v>
+      </c>
+      <c r="J79">
+        <v>-0.06706381411623896</v>
+      </c>
+      <c r="K79">
+        <v>0.01664818650625748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03897378312078319</v>
+        <v>0.04445397986554039</v>
       </c>
       <c r="C80">
-        <v>0.01563882454911677</v>
+        <v>-0.006019970530944257</v>
       </c>
       <c r="D80">
-        <v>-0.01406137465353228</v>
+        <v>0.04305676387665363</v>
       </c>
       <c r="E80">
-        <v>-0.002840456423636478</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.001263503683779881</v>
+      </c>
+      <c r="F80">
+        <v>-0.03632716143139884</v>
+      </c>
+      <c r="G80">
+        <v>-0.003079017091177184</v>
+      </c>
+      <c r="H80">
+        <v>0.03979629219235278</v>
+      </c>
+      <c r="I80">
+        <v>0.0841444996000555</v>
+      </c>
+      <c r="J80">
+        <v>-0.01784836472936984</v>
+      </c>
+      <c r="K80">
+        <v>-0.02174954242806834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1349191478951324</v>
+        <v>0.132670791361185</v>
       </c>
       <c r="C81">
-        <v>-0.007382150364024538</v>
+        <v>-0.0158693435639649</v>
       </c>
       <c r="D81">
-        <v>-0.04950632279574083</v>
+        <v>0.0389140110255525</v>
       </c>
       <c r="E81">
-        <v>-0.02751322275361546</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.00619262827234415</v>
+      </c>
+      <c r="F81">
+        <v>-0.0007644077470807644</v>
+      </c>
+      <c r="G81">
+        <v>-0.004070440634467826</v>
+      </c>
+      <c r="H81">
+        <v>-0.1548199089666017</v>
+      </c>
+      <c r="I81">
+        <v>0.003848867671210236</v>
+      </c>
+      <c r="J81">
+        <v>0.01721439159667557</v>
+      </c>
+      <c r="K81">
+        <v>-0.01621441728226226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1255723137579703</v>
+        <v>0.1260687053680194</v>
       </c>
       <c r="C82">
-        <v>0.01743710262272516</v>
+        <v>-0.02897090752499931</v>
       </c>
       <c r="D82">
-        <v>-0.02951661298743843</v>
+        <v>0.0371326275438476</v>
       </c>
       <c r="E82">
-        <v>-0.04174105449023068</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01356592073865877</v>
+      </c>
+      <c r="F82">
+        <v>-0.02214868765438097</v>
+      </c>
+      <c r="G82">
+        <v>0.01304228871806867</v>
+      </c>
+      <c r="H82">
+        <v>-0.2852397625768542</v>
+      </c>
+      <c r="I82">
+        <v>-0.007893250868004364</v>
+      </c>
+      <c r="J82">
+        <v>-0.001641585457327384</v>
+      </c>
+      <c r="K82">
+        <v>-0.01163444966683017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05280920982306737</v>
+        <v>0.07771310068551125</v>
       </c>
       <c r="C83">
-        <v>0.01586496197494376</v>
+        <v>-0.02910318381346599</v>
       </c>
       <c r="D83">
-        <v>0.05753369115924008</v>
+        <v>-0.02278864046978964</v>
       </c>
       <c r="E83">
-        <v>-0.01431317730444394</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.03384348573801291</v>
+      </c>
+      <c r="F83">
+        <v>-0.06501714143377654</v>
+      </c>
+      <c r="G83">
+        <v>0.0439651401639399</v>
+      </c>
+      <c r="H83">
+        <v>0.08583952122437627</v>
+      </c>
+      <c r="I83">
+        <v>0.08413629591264454</v>
+      </c>
+      <c r="J83">
+        <v>0.01845782914901214</v>
+      </c>
+      <c r="K83">
+        <v>-0.03838408712720701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04966129222477679</v>
+        <v>0.03473948816566413</v>
       </c>
       <c r="C84">
-        <v>0.008070468225269047</v>
+        <v>-0.04121424321881222</v>
       </c>
       <c r="D84">
-        <v>-0.04779170343516845</v>
+        <v>0.006505338553893818</v>
       </c>
       <c r="E84">
-        <v>0.03736627840250959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.04979700701496546</v>
+      </c>
+      <c r="F84">
+        <v>0.0383023063736009</v>
+      </c>
+      <c r="G84">
+        <v>0.03879622009506267</v>
+      </c>
+      <c r="H84">
+        <v>0.007028998300925692</v>
+      </c>
+      <c r="I84">
+        <v>0.1238377342059881</v>
+      </c>
+      <c r="J84">
+        <v>-0.006231101910671225</v>
+      </c>
+      <c r="K84">
+        <v>-0.103911812448092</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1160799777453946</v>
+        <v>0.1220473624775772</v>
       </c>
       <c r="C85">
-        <v>0.0350981952761476</v>
+        <v>-0.03870650565125111</v>
       </c>
       <c r="D85">
-        <v>-0.01947527341860734</v>
+        <v>0.01983411004903744</v>
       </c>
       <c r="E85">
-        <v>-0.06429835570594983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.03683019304048923</v>
+      </c>
+      <c r="F85">
+        <v>0.01054853632242696</v>
+      </c>
+      <c r="G85">
+        <v>-0.01399254395148092</v>
+      </c>
+      <c r="H85">
+        <v>-0.1997489148157484</v>
+      </c>
+      <c r="I85">
+        <v>-0.01854186070052995</v>
+      </c>
+      <c r="J85">
+        <v>-0.07125707667647416</v>
+      </c>
+      <c r="K85">
+        <v>0.01993717829603955</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07465882213758648</v>
+        <v>0.06676651847445826</v>
       </c>
       <c r="C86">
-        <v>0.06108155142059441</v>
+        <v>-0.03028314534331737</v>
       </c>
       <c r="D86">
-        <v>-0.02070538857364288</v>
+        <v>-0.01109431553986055</v>
       </c>
       <c r="E86">
-        <v>-0.02593085436575785</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02110457647826861</v>
+      </c>
+      <c r="F86">
+        <v>0.03734117157486826</v>
+      </c>
+      <c r="G86">
+        <v>0.01630641275576502</v>
+      </c>
+      <c r="H86">
+        <v>0.04574047890744953</v>
+      </c>
+      <c r="I86">
+        <v>-0.06306666362924163</v>
+      </c>
+      <c r="J86">
+        <v>-0.005764189990614783</v>
+      </c>
+      <c r="K86">
+        <v>-0.09041773342666398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1330465805185345</v>
+        <v>0.1313873797713046</v>
       </c>
       <c r="C87">
-        <v>0.06905602542311966</v>
+        <v>-0.07109874503420589</v>
       </c>
       <c r="D87">
-        <v>-0.06637929351874644</v>
+        <v>0.01084077197469659</v>
       </c>
       <c r="E87">
-        <v>-0.04348848330797384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01831431911791474</v>
+      </c>
+      <c r="F87">
+        <v>0.09942676780699207</v>
+      </c>
+      <c r="G87">
+        <v>-0.1690587430526612</v>
+      </c>
+      <c r="H87">
+        <v>0.06182275482857827</v>
+      </c>
+      <c r="I87">
+        <v>0.004505553493493057</v>
+      </c>
+      <c r="J87">
+        <v>0.02984741705183789</v>
+      </c>
+      <c r="K87">
+        <v>-0.02491840084853164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06140848360094522</v>
+        <v>0.06627942696867711</v>
       </c>
       <c r="C88">
-        <v>0.02375848482270385</v>
+        <v>-0.03863866581513321</v>
       </c>
       <c r="D88">
-        <v>-0.01294711388112618</v>
+        <v>0.02556486661655728</v>
       </c>
       <c r="E88">
-        <v>-0.01118707653175509</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01338896615064702</v>
+      </c>
+      <c r="F88">
+        <v>-0.003962620093454643</v>
+      </c>
+      <c r="G88">
+        <v>-0.0203882621721205</v>
+      </c>
+      <c r="H88">
+        <v>-0.01502073844884425</v>
+      </c>
+      <c r="I88">
+        <v>0.04327885444394335</v>
+      </c>
+      <c r="J88">
+        <v>0.01219079707545465</v>
+      </c>
+      <c r="K88">
+        <v>-0.02158377399739661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07169729404531966</v>
+        <v>0.1352269298317418</v>
       </c>
       <c r="C89">
-        <v>-0.3282237983706089</v>
+        <v>0.3786380967467473</v>
       </c>
       <c r="D89">
-        <v>0.02780714508323948</v>
+        <v>-0.001302693942856138</v>
       </c>
       <c r="E89">
-        <v>-0.1066087830238342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08067274433305671</v>
+      </c>
+      <c r="F89">
+        <v>0.03803346828296698</v>
+      </c>
+      <c r="G89">
+        <v>0.02549367888384283</v>
+      </c>
+      <c r="H89">
+        <v>0.01292074768793699</v>
+      </c>
+      <c r="I89">
+        <v>0.07502235996168941</v>
+      </c>
+      <c r="J89">
+        <v>0.0624122899121264</v>
+      </c>
+      <c r="K89">
+        <v>0.01411564726462528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06168930433335196</v>
+        <v>0.0967804832971054</v>
       </c>
       <c r="C90">
-        <v>-0.2873315000230833</v>
+        <v>0.2823046320750785</v>
       </c>
       <c r="D90">
-        <v>0.04888088370845122</v>
+        <v>-0.03109064424455484</v>
       </c>
       <c r="E90">
-        <v>-0.05420994470493499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0265453616359459</v>
+      </c>
+      <c r="F90">
+        <v>0.01140742673565699</v>
+      </c>
+      <c r="G90">
+        <v>-0.02114025832847398</v>
+      </c>
+      <c r="H90">
+        <v>0.04316248876016888</v>
+      </c>
+      <c r="I90">
+        <v>0.07621081219218874</v>
+      </c>
+      <c r="J90">
+        <v>0.0409129972312629</v>
+      </c>
+      <c r="K90">
+        <v>0.02685861212880502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1034737511441439</v>
+        <v>0.09055170050882004</v>
       </c>
       <c r="C91">
-        <v>0.008520282353138335</v>
+        <v>-0.03417171931833862</v>
       </c>
       <c r="D91">
-        <v>-0.02801310322215724</v>
+        <v>0.008663417854855802</v>
       </c>
       <c r="E91">
-        <v>-0.01360690385262713</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.002090426291050244</v>
+      </c>
+      <c r="F91">
+        <v>-0.00689804358702626</v>
+      </c>
+      <c r="G91">
+        <v>0.01460909123283808</v>
+      </c>
+      <c r="H91">
+        <v>-0.09054429171007108</v>
+      </c>
+      <c r="I91">
+        <v>-0.01915912385118745</v>
+      </c>
+      <c r="J91">
+        <v>-0.01097109705144139</v>
+      </c>
+      <c r="K91">
+        <v>0.02038345697612068</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.046738678618583</v>
+        <v>0.09616536382056674</v>
       </c>
       <c r="C92">
-        <v>-0.3382347671376228</v>
+        <v>0.3401902843153192</v>
       </c>
       <c r="D92">
-        <v>0.01217525182757458</v>
+        <v>-0.0006103403707511379</v>
       </c>
       <c r="E92">
-        <v>-0.0915106506515026</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.04166969057181334</v>
+      </c>
+      <c r="F92">
+        <v>0.04637712953600073</v>
+      </c>
+      <c r="G92">
+        <v>-0.001762616848659147</v>
+      </c>
+      <c r="H92">
+        <v>-0.01319844730736899</v>
+      </c>
+      <c r="I92">
+        <v>0.02436633493988541</v>
+      </c>
+      <c r="J92">
+        <v>0.02085765420131558</v>
+      </c>
+      <c r="K92">
+        <v>0.00404388174289853</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04078752471414362</v>
+        <v>0.09690514130424455</v>
       </c>
       <c r="C93">
-        <v>-0.3009279913890553</v>
+        <v>0.3189801016096704</v>
       </c>
       <c r="D93">
-        <v>0.02966201534548044</v>
+        <v>-0.001473052796101501</v>
       </c>
       <c r="E93">
-        <v>-0.05661281166248353</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02243519894612745</v>
+      </c>
+      <c r="F93">
+        <v>0.004804747586114298</v>
+      </c>
+      <c r="G93">
+        <v>-0.0007924465842410613</v>
+      </c>
+      <c r="H93">
+        <v>0.01087753107691317</v>
+      </c>
+      <c r="I93">
+        <v>-3.199356312744348e-05</v>
+      </c>
+      <c r="J93">
+        <v>-0.007820529858536304</v>
+      </c>
+      <c r="K93">
+        <v>-0.03197614930760864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1274751391344455</v>
+        <v>0.1224335439617611</v>
       </c>
       <c r="C94">
-        <v>0.04941784528226484</v>
+        <v>-0.05269458163854703</v>
       </c>
       <c r="D94">
-        <v>-0.03234797855207403</v>
+        <v>0.01288606815108813</v>
       </c>
       <c r="E94">
-        <v>-0.03616531222663154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.0260573959301411</v>
+      </c>
+      <c r="F94">
+        <v>0.01379042981137221</v>
+      </c>
+      <c r="G94">
+        <v>0.05416730474272148</v>
+      </c>
+      <c r="H94">
+        <v>-0.1203920316935821</v>
+      </c>
+      <c r="I94">
+        <v>-0.01554119382001548</v>
+      </c>
+      <c r="J94">
+        <v>-0.02227737668130114</v>
+      </c>
+      <c r="K94">
+        <v>0.01702254583057618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1329634931243156</v>
+        <v>0.1414588170748324</v>
       </c>
       <c r="C95">
-        <v>0.07027721985556988</v>
+        <v>-0.06382785267530966</v>
       </c>
       <c r="D95">
-        <v>-0.07379879121621924</v>
+        <v>0.03630983215140409</v>
       </c>
       <c r="E95">
-        <v>-0.06275583620802629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.03266275931098207</v>
+      </c>
+      <c r="F95">
+        <v>0.0486684710597443</v>
+      </c>
+      <c r="G95">
+        <v>-0.03083868138272772</v>
+      </c>
+      <c r="H95">
+        <v>0.152291798192374</v>
+      </c>
+      <c r="I95">
+        <v>0.01426792568334981</v>
+      </c>
+      <c r="J95">
+        <v>-0.01262614673136916</v>
+      </c>
+      <c r="K95">
+        <v>0.009767532451766175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2466096284828565</v>
+        <v>0.1860491934718637</v>
       </c>
       <c r="C97">
-        <v>-0.1477633406303716</v>
+        <v>0.03964054694979863</v>
       </c>
       <c r="D97">
-        <v>-0.05219144065205668</v>
+        <v>-0.2350002442836675</v>
       </c>
       <c r="E97">
-        <v>0.8875176842431086</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.9055513713660077</v>
+      </c>
+      <c r="F97">
+        <v>-0.100185512458879</v>
+      </c>
+      <c r="G97">
+        <v>-0.03414542185158523</v>
+      </c>
+      <c r="H97">
+        <v>0.05628629722344312</v>
+      </c>
+      <c r="I97">
+        <v>0.04205072048976947</v>
+      </c>
+      <c r="J97">
+        <v>0.03058485489336625</v>
+      </c>
+      <c r="K97">
+        <v>0.05279077397332168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2794957409531441</v>
+        <v>0.2857508092868492</v>
       </c>
       <c r="C98">
-        <v>0.02415894694029585</v>
+        <v>-0.08200577907674128</v>
       </c>
       <c r="D98">
-        <v>-0.001539978826616899</v>
+        <v>0.09108223353022675</v>
       </c>
       <c r="E98">
-        <v>-0.02825139081605722</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.00654317503563984</v>
+      </c>
+      <c r="F98">
+        <v>-0.3037696806247547</v>
+      </c>
+      <c r="G98">
+        <v>0.2989350899850328</v>
+      </c>
+      <c r="H98">
+        <v>0.2396493326015083</v>
+      </c>
+      <c r="I98">
+        <v>-0.2107148242686222</v>
+      </c>
+      <c r="J98">
+        <v>0.1375153670176172</v>
+      </c>
+      <c r="K98">
+        <v>-0.618354629763945</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2414601955527987</v>
+        <v>0.1579753181305977</v>
       </c>
       <c r="C99">
-        <v>0.1072785951048396</v>
+        <v>-0.07452760832642315</v>
       </c>
       <c r="D99">
-        <v>0.9227017354382615</v>
+        <v>-0.7727799347025859</v>
       </c>
       <c r="E99">
-        <v>0.02558253289670957</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.2851152144340443</v>
+      </c>
+      <c r="F99">
+        <v>-0.4291401468517806</v>
+      </c>
+      <c r="G99">
+        <v>0.02665991357946377</v>
+      </c>
+      <c r="H99">
+        <v>-0.1014861998080532</v>
+      </c>
+      <c r="I99">
+        <v>0.05015041506498071</v>
+      </c>
+      <c r="J99">
+        <v>-0.1078655992163978</v>
+      </c>
+      <c r="K99">
+        <v>0.02283345546413666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05903782976866827</v>
+        <v>0.05544056083255919</v>
       </c>
       <c r="C101">
-        <v>-0.003600488005799139</v>
+        <v>-0.01010258418372965</v>
       </c>
       <c r="D101">
-        <v>-0.03112455511381385</v>
+        <v>0.02173463104189644</v>
       </c>
       <c r="E101">
-        <v>-0.02615593746455058</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01358812470759067</v>
+      </c>
+      <c r="F101">
+        <v>0.03798133231439798</v>
+      </c>
+      <c r="G101">
+        <v>-0.02745432795577329</v>
+      </c>
+      <c r="H101">
+        <v>-0.05228096667039322</v>
+      </c>
+      <c r="I101">
+        <v>0.05036105531922869</v>
+      </c>
+      <c r="J101">
+        <v>-0.0293981917654673</v>
+      </c>
+      <c r="K101">
+        <v>-0.03733448638963477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
